--- a/mes-plugins/mes-plugins-technologies/src/main/resources/technologies/public/resources/operationProductInComponentImportSchema_cn.xlsx
+++ b/mes-plugins/mes-plugins-technologies/src/main/resources/technologies/public/resources/operationProductInComponentImportSchema_cn.xlsx
@@ -1,55 +1,300 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuho\Desktop\Import templates - 副本\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF1239E-95E3-44D9-932F-7189E0072616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId4"/>
+    <sheet name="Input products" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>qcadoo MES</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{BE08F192-172C-4B3A-8802-53A9128159EC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>必填数据。在工艺树中输入工序号，例如</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>:“1.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>或</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>“2.B.2.”</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>。
+记住输入所有字符</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>甚至是数字末尾的句号</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{91E1F18A-EA62-4308-A3AF-12DABE77DBAD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>必填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>输入qcadoo中定义的产品编号</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{9C7A5A9E-D7D6-42C2-948B-CA8BD424D825}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>必填数据。以默认单位输入产品数量。使用点“</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>.”</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作为小数分隔符。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>工序层级号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>产品编号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="15"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="DengXian"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -66,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -74,66 +319,269 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1">
+    <tableStyle name="Styl tabeli 1" pivot="0" count="1" xr9:uid="{54364EAF-1A53-4DE9-AC40-3FE9A0AA615F}">
+      <tableStyleElement type="wholeTable" dxfId="5"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F113F028-5E62-475F-8ECD-7F5BE5860CF6}" name="operationProductInComponentImportSchema_en" displayName="operationProductInComponentImportSchema_en" ref="A1:C2" insertRow="1" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C2" xr:uid="{F113F028-5E62-475F-8ECD-7F5BE5860CF6}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B0E99F1F-FF88-4075-BBAD-DA26A61EF2C7}" name="工序层级号" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{0DFA9512-C1D9-48FD-B551-2FA5005A904B}" name="产品编号" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{B0D4CFE2-EAB3-4A02-B5B7-09135C5AB1AA}" name="数量" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="Styl tabeli 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
     <a:clrScheme name="Motyw pakietu Office">
       <a:dk1>
@@ -335,7 +783,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -354,7 +802,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -384,7 +832,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -410,7 +858,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -436,7 +884,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -462,7 +910,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -488,7 +936,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -514,7 +962,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -540,7 +988,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -566,7 +1014,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -592,7 +1040,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -605,9 +1053,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -624,7 +1078,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -643,7 +1097,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -669,7 +1123,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -695,7 +1149,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -721,7 +1175,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -747,7 +1201,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -773,7 +1227,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -799,7 +1253,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -825,7 +1279,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -851,7 +1305,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -877,7 +1331,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -890,9 +1344,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -906,7 +1366,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -925,7 +1385,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -955,7 +1415,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -981,7 +1441,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1007,7 +1467,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1033,7 +1493,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1059,7 +1519,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1085,7 +1545,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1111,7 +1571,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1137,7 +1597,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1163,7 +1623,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1176,89 +1636,128 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.9" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="16.8516" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="1" customWidth="1"/>
+    <col min="1" max="3" width="16.8984375" style="3" customWidth="1"/>
+    <col min="4" max="5" width="10.8984375" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.8984375" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="10.8984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="15.45" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+    <row r="2" spans="1:5" ht="15.45" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+    <row r="3" spans="1:5" ht="15.45" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+    <row r="4" spans="1:5" ht="15.45" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+    <row r="5" spans="1:5" ht="15.45" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+    <row r="6" spans="1:5" ht="15.45" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+    <row r="7" spans="1:5" ht="15.45" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
-    <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+    <row r="8" spans="1:5" ht="15.45" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
-    <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+    <row r="9" spans="1:5" ht="15.45" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
-    <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+    <row r="10" spans="1:5" ht="15.45" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>